--- a/stock_report.xlsx
+++ b/stock_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Desktop/📚/🧑‍💻/github/stock_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F62D202-DA94-F844-84CF-4CB0B1067B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796FBD45-342E-F045-9A52-D2DC3445DFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="11800" windowHeight="15900" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>애플</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>SPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -789,10 +793,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:R22"/>
+  <dimension ref="A2:R25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -808,7 +812,7 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -826,7 +830,7 @@
         <v>-0.4</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="20"/>
     </row>
@@ -854,13 +858,13 @@
         <v>109.764</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
         <f>3030.93/20</f>
@@ -911,7 +915,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>414.5</v>
@@ -935,7 +939,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>67.2</v>
@@ -959,7 +963,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
         <v>181.07</v>
@@ -983,7 +987,7 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3">
         <v>895.93</v>
@@ -1005,336 +1009,320 @@
         <v>537.55799999999999</v>
       </c>
     </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>895.93</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D12" si="8">C10*0.9</f>
+        <v>806.33699999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ref="E10:E12" si="9">C10*0.8</f>
+        <v>716.74400000000003</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:F12" si="10">C10*0.7</f>
+        <v>627.15099999999995</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" ref="G10:G12" si="11">C10*0.6</f>
+        <v>537.55799999999999</v>
+      </c>
+    </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>895.93</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="8"/>
+        <v>806.33699999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="9"/>
+        <v>716.74400000000003</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="10"/>
+        <v>627.15099999999995</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="11"/>
+        <v>537.55799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>895.93</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="8"/>
+        <v>806.33699999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="9"/>
+        <v>716.74400000000003</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="10"/>
+        <v>627.15099999999995</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="11"/>
+        <v>537.55799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="17" t="s">
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C15" s="3">
         <v>157.96</v>
       </c>
-      <c r="D12" s="10">
-        <f t="shared" ref="D12:D18" si="8">(C12-C3)/C3</f>
+      <c r="D15" s="10">
+        <f>(C15-C3)/C3</f>
         <v>-0.13654750191319553</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E15" s="3">
         <v>149.35</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F18" si="9">(E12-C3)/C3</f>
+      <c r="F15" s="10">
+        <f>(E15-C3)/C3</f>
         <v>-0.18361211326117854</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G15" s="10">
         <v>-0.16</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="I15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="7">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3">
+    <row r="16" spans="2:10">
+      <c r="B16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3">
         <v>109.74</v>
       </c>
-      <c r="D13" s="10">
-        <f t="shared" si="8"/>
+      <c r="D16" s="10">
+        <f>(C16-C4)/C4</f>
         <v>-0.27586582336114651</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E16" s="3">
         <v>94.93</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="9"/>
+      <c r="F16" s="10">
+        <f>(E16-C4)/C4</f>
         <v>-0.37359160389715357</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G16" s="7">
         <v>-0.12</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="7">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>139.37</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="8"/>
-        <v>-0.59774295032758973</v>
-      </c>
-      <c r="E14" s="15">
-        <v>128.96</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" si="9"/>
-        <v>-0.6277888417467602</v>
-      </c>
-      <c r="G14" s="7">
-        <v>-0.49</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="7">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
-        <v>277.16000000000003</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="8"/>
-        <v>-0.33133896260554879</v>
-      </c>
-      <c r="E15" s="3">
-        <v>224.64</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="9"/>
-        <v>-0.45804583835946927</v>
-      </c>
-      <c r="G15" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="7">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3">
-        <v>62</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="8"/>
-        <v>-7.7380952380952425E-2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>59.39</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" si="9"/>
-        <v>-0.11622023809523813</v>
-      </c>
-      <c r="G16" s="7">
-        <v>-0.1</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="7">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="B17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>139.37</v>
+      </c>
+      <c r="D17" s="10">
+        <f>(C17-C5)/C5</f>
+        <v>-0.59774295032758973</v>
+      </c>
+      <c r="E17" s="15">
+        <v>128.96</v>
+      </c>
+      <c r="F17" s="10">
+        <f>(E17-C5)/C5</f>
+        <v>-0.6277888417467602</v>
+      </c>
+      <c r="G17" s="7">
+        <v>-0.49</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>277.16000000000003</v>
+      </c>
+      <c r="D18" s="10">
+        <f>(C18-C6)/C6</f>
+        <v>-0.33133896260554879</v>
+      </c>
+      <c r="E18" s="3">
+        <v>224.64</v>
+      </c>
+      <c r="F18" s="10">
+        <f>(E18-C6)/C6</f>
+        <v>-0.45804583835946927</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>62</v>
+      </c>
+      <c r="D19" s="10">
+        <f>(C19-C7)/C7</f>
+        <v>-7.7380952380952425E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>59.39</v>
+      </c>
+      <c r="F19" s="10">
+        <f>(E19-C7)/C7</f>
+        <v>-0.11622023809523813</v>
+      </c>
+      <c r="G19" s="7">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="B17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="I19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3">
         <v>172.85</v>
       </c>
-      <c r="D17" s="10">
-        <f t="shared" si="8"/>
+      <c r="D20" s="10">
+        <f>(C20-C8)/C8</f>
         <v>-4.5396807864361843E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E20" s="3">
         <v>179.07</v>
       </c>
-      <c r="F17" s="10">
-        <f t="shared" si="9"/>
+      <c r="F20" s="10">
+        <f>(E20-C8)/C8</f>
         <v>-1.1045452035124538E-2</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="G20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="B18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="21" spans="1:18">
+      <c r="B21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
         <v>469.92</v>
       </c>
-      <c r="D18" s="10">
-        <f t="shared" si="8"/>
+      <c r="D21" s="10">
+        <f>(C21-C9)/C9</f>
         <v>-0.47549473731206676</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E21" s="3">
         <v>484.09</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="9"/>
+      <c r="F21" s="10">
+        <f>(E21-C9)/C9</f>
         <v>-0.45967876954672798</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="11">
+      <c r="G21" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="11">
         <v>408.71</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3">
         <v>299.39999999999998</v>
       </c>
-      <c r="D19" s="10">
-        <f>(C19-$A$19)/$A$19</f>
+      <c r="D22" s="10">
+        <f>(C22-$A$22)/$A$22</f>
         <v>-0.26745124905189499</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E22" s="3">
         <v>277.93</v>
       </c>
-      <c r="F19" s="10">
-        <f>(E19-$A$19)/$A$19</f>
+      <c r="F22" s="10">
+        <f>(E22-$A$22)/$A$22</f>
         <v>-0.31998238359717152</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G22" s="7">
         <f>(4895-5000)/5000</f>
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="11">
-        <v>94.54</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3">
-        <v>46.4</v>
-      </c>
-      <c r="D20" s="10">
-        <f>(C20-$A$20)/$A$20</f>
-        <v>-0.50920245398773012</v>
-      </c>
-      <c r="E20" s="3">
-        <v>39.18</v>
-      </c>
-      <c r="F20" s="10">
-        <f>(E20-$A$20)/$A$20</f>
-        <v>-0.5855722445525704</v>
-      </c>
-      <c r="G20" s="7">
-        <v>-0.41</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="11">
-        <v>479.98</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>396.42</v>
-      </c>
-      <c r="D21" s="10">
-        <f>(C21-$A$21)/$A$21</f>
-        <v>-0.17409058710779615</v>
-      </c>
-      <c r="E21" s="3">
-        <v>382.02</v>
-      </c>
-      <c r="F21" s="10">
-        <f>(E21-$A$21)/$A$21</f>
-        <v>-0.20409183715988172</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="14" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="12"/>
@@ -1347,13 +1335,101 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
     </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="11">
+        <v>94.54</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>46.4</v>
+      </c>
+      <c r="D23" s="10">
+        <f>(C23-$A$23)/$A$23</f>
+        <v>-0.50920245398773012</v>
+      </c>
+      <c r="E23" s="3">
+        <v>39.18</v>
+      </c>
+      <c r="F23" s="10">
+        <f>(E23-$A$23)/$A$23</f>
+        <v>-0.5855722445525704</v>
+      </c>
+      <c r="G23" s="7">
+        <v>-0.41</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="11">
+        <v>479.98</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>396.42</v>
+      </c>
+      <c r="D24" s="10">
+        <f>(C24-$A$24)/$A$24</f>
+        <v>-0.17409058710779615</v>
+      </c>
+      <c r="E24" s="3">
+        <v>382.02</v>
+      </c>
+      <c r="F24" s="10">
+        <f>(E24-$A$24)/$A$24</f>
+        <v>-0.20409183715988172</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="I25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F12:G12 G18:G21 D12:D21 F13:F21 G13:G16">
+  <conditionalFormatting sqref="F15:G15 G21:G24 D15:D24 F16:F24 G16:G19">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
@@ -1367,7 +1443,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J17 D12:D20 F12:F20">
+  <conditionalFormatting sqref="J15:J20 D15:D23 F15:F23">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -1381,7 +1457,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D21 F12:F21">
+  <conditionalFormatting sqref="D15:D24 F15:F24">
     <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
@@ -1409,7 +1485,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F12:G12 G18:G21 D12:D21 F13:F21 G13:G16</xm:sqref>
+          <xm:sqref>F15:G15 G21:G24 D15:D24 F16:F24 G16:G19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6C595971-EB68-4D55-906D-DCD13F6E97FB}">
@@ -1420,7 +1496,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J12:J17 D12:D20 F12:F20</xm:sqref>
+          <xm:sqref>J15:J20 D15:D23 F15:F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A397ACB-E89B-46B0-A03D-783EAC942BDB}">
@@ -1431,7 +1507,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D12:D21 F12:F21</xm:sqref>
+          <xm:sqref>D15:D24 F15:F24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
